--- a/2025/2025.11 Invoicing/running_totals_FY2026_through_2025-11.xlsx
+++ b/2025/2025.11 Invoicing/running_totals_FY2026_through_2025-11.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzabriskie/Desktop/repos/eto_billing/2025/2025.11 Invoicing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476CCAE2-FC17-2F4F-81B2-9EB072C1A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB86C8-6665-674E-B516-01DE12E72FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="20420" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunningTotals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Account</t>
   </si>
@@ -59,6 +46,9 @@
     <t>CL000</t>
   </si>
   <si>
+    <t>CL003</t>
+  </si>
+  <si>
     <t>CL007</t>
   </si>
   <si>
@@ -74,6 +64,9 @@
     <t>official</t>
   </si>
   <si>
+    <t>Palatinus</t>
+  </si>
+  <si>
     <t>Shah/Rieke</t>
   </si>
   <si>
@@ -81,9 +74,6 @@
   </si>
   <si>
     <t>Hoareau/Johnson</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -454,7 +444,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -496,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -519,22 +509,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -542,22 +532,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,22 +555,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G5">
-        <v>400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -588,47 +578,45 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:G7" si="0">SUM(D2:D6)</f>
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>4520</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
